--- a/user-data/in-oda-gross/in-oda-gross.xlsx
+++ b/user-data/in-oda-gross/in-oda-gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <si>
     <t>id</t>
   </si>
@@ -1132,9 +1132,6 @@
     <t>Source: Development Initiatives based on OECD-DAC data</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1517,32 +1514,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13">
@@ -1558,11 +1555,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/in-oda-gross/in-oda-gross.xlsx
+++ b/user-data/in-oda-gross/in-oda-gross.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1138,7 +1138,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/in-oda-gross/in-oda-gross.xlsx
+++ b/user-data/in-oda-gross/in-oda-gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t>id</t>
   </si>
@@ -1144,7 +1144,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1557,6 +1560,11 @@
         <v>378</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/in-oda-gross/in-oda-gross.xlsx
+++ b/user-data/in-oda-gross/in-oda-gross.xlsx
@@ -73,7 +73,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -157,7 +157,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -182,12 +182,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -266,6 +260,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -775,7 +775,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -793,7 +793,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -805,7 +805,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -973,7 +973,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -997,7 +997,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1051,7 +1051,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>west-indies</t>
@@ -1153,7 +1153,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -6700,7 +6700,7 @@
         <v>2000</v>
       </c>
       <c r="D366" t="n">
-        <v>783440000</v>
+        <v>625580000</v>
       </c>
     </row>
     <row r="367">
@@ -6714,7 +6714,7 @@
         <v>2001</v>
       </c>
       <c r="D367" t="n">
-        <v>527940000</v>
+        <v>690480000</v>
       </c>
     </row>
     <row r="368">
@@ -6728,7 +6728,7 @@
         <v>2002</v>
       </c>
       <c r="D368" t="n">
-        <v>2181840000</v>
+        <v>767310000</v>
       </c>
     </row>
     <row r="369">
@@ -6742,7 +6742,7 @@
         <v>2003</v>
       </c>
       <c r="D369" t="n">
-        <v>576950000</v>
+        <v>719850000</v>
       </c>
     </row>
     <row r="370">
@@ -6756,7 +6756,7 @@
         <v>2004</v>
       </c>
       <c r="D370" t="n">
-        <v>421570000</v>
+        <v>624250000</v>
       </c>
     </row>
     <row r="371">
@@ -6770,7 +6770,7 @@
         <v>2005</v>
       </c>
       <c r="D371" t="n">
-        <v>272810000</v>
+        <v>672020000</v>
       </c>
     </row>
     <row r="372">
@@ -6784,7 +6784,7 @@
         <v>2006</v>
       </c>
       <c r="D372" t="n">
-        <v>402010000</v>
+        <v>750980000</v>
       </c>
     </row>
     <row r="373">
@@ -6798,7 +6798,7 @@
         <v>2007</v>
       </c>
       <c r="D373" t="n">
-        <v>325760000</v>
+        <v>771700000</v>
       </c>
     </row>
     <row r="374">
@@ -6812,7 +6812,7 @@
         <v>2008</v>
       </c>
       <c r="D374" t="n">
-        <v>831270000</v>
+        <v>807230000</v>
       </c>
     </row>
     <row r="375">
@@ -6826,7 +6826,7 @@
         <v>2009</v>
       </c>
       <c r="D375" t="n">
-        <v>2556070000</v>
+        <v>805490000</v>
       </c>
     </row>
     <row r="376">
@@ -6840,7 +6840,7 @@
         <v>2010</v>
       </c>
       <c r="D376" t="n">
-        <v>982170000</v>
+        <v>806170000</v>
       </c>
     </row>
     <row r="377">
@@ -6854,7 +6854,7 @@
         <v>2011</v>
       </c>
       <c r="D377" t="n">
-        <v>1493390000</v>
+        <v>854100000</v>
       </c>
     </row>
     <row r="378">
@@ -6868,7 +6868,7 @@
         <v>2012</v>
       </c>
       <c r="D378" t="n">
-        <v>4696970000</v>
+        <v>860210000</v>
       </c>
     </row>
     <row r="379">
@@ -6882,7 +6882,7 @@
         <v>2013</v>
       </c>
       <c r="D379" t="n">
-        <v>2097770000</v>
+        <v>895140000</v>
       </c>
     </row>
     <row r="380">
@@ -6896,7 +6896,7 @@
         <v>2000</v>
       </c>
       <c r="D380" t="n">
-        <v>625580000</v>
+        <v>846540000</v>
       </c>
     </row>
     <row r="381">
@@ -6910,7 +6910,7 @@
         <v>2001</v>
       </c>
       <c r="D381" t="n">
-        <v>690480000</v>
+        <v>977390000</v>
       </c>
     </row>
     <row r="382">
@@ -6924,7 +6924,7 @@
         <v>2002</v>
       </c>
       <c r="D382" t="n">
-        <v>767310000</v>
+        <v>1238070000</v>
       </c>
     </row>
     <row r="383">
@@ -6938,7 +6938,7 @@
         <v>2003</v>
       </c>
       <c r="D383" t="n">
-        <v>719850000</v>
+        <v>1388590000</v>
       </c>
     </row>
     <row r="384">
@@ -6952,7 +6952,7 @@
         <v>2004</v>
       </c>
       <c r="D384" t="n">
-        <v>624250000</v>
+        <v>1173210000</v>
       </c>
     </row>
     <row r="385">
@@ -6966,7 +6966,7 @@
         <v>2005</v>
       </c>
       <c r="D385" t="n">
-        <v>672020000</v>
+        <v>766770000</v>
       </c>
     </row>
     <row r="386">
@@ -6980,7 +6980,7 @@
         <v>2006</v>
       </c>
       <c r="D386" t="n">
-        <v>750980000</v>
+        <v>3946050000</v>
       </c>
     </row>
     <row r="387">
@@ -6994,7 +6994,7 @@
         <v>2007</v>
       </c>
       <c r="D387" t="n">
-        <v>771700000</v>
+        <v>2155600000</v>
       </c>
     </row>
     <row r="388">
@@ -7008,7 +7008,7 @@
         <v>2008</v>
       </c>
       <c r="D388" t="n">
-        <v>807230000</v>
+        <v>1122350000</v>
       </c>
     </row>
     <row r="389">
@@ -7022,7 +7022,7 @@
         <v>2009</v>
       </c>
       <c r="D389" t="n">
-        <v>805490000</v>
+        <v>803050000</v>
       </c>
     </row>
     <row r="390">
@@ -7036,7 +7036,7 @@
         <v>2010</v>
       </c>
       <c r="D390" t="n">
-        <v>806170000</v>
+        <v>679460000</v>
       </c>
     </row>
     <row r="391">
@@ -7050,7 +7050,7 @@
         <v>2011</v>
       </c>
       <c r="D391" t="n">
-        <v>854100000</v>
+        <v>667830000</v>
       </c>
     </row>
     <row r="392">
@@ -7064,7 +7064,7 @@
         <v>2012</v>
       </c>
       <c r="D392" t="n">
-        <v>860210000</v>
+        <v>692150000</v>
       </c>
     </row>
     <row r="393">
@@ -7078,7 +7078,7 @@
         <v>2013</v>
       </c>
       <c r="D393" t="n">
-        <v>895140000</v>
+        <v>768480000</v>
       </c>
     </row>
     <row r="394">
@@ -7092,7 +7092,7 @@
         <v>2000</v>
       </c>
       <c r="D394" t="n">
-        <v>846540000</v>
+        <v>164830000</v>
       </c>
     </row>
     <row r="395">
@@ -7106,7 +7106,7 @@
         <v>2001</v>
       </c>
       <c r="D395" t="n">
-        <v>977390000</v>
+        <v>136830000</v>
       </c>
     </row>
     <row r="396">
@@ -7120,7 +7120,7 @@
         <v>2002</v>
       </c>
       <c r="D396" t="n">
-        <v>1238070000</v>
+        <v>155490000</v>
       </c>
     </row>
     <row r="397">
@@ -7134,7 +7134,7 @@
         <v>2003</v>
       </c>
       <c r="D397" t="n">
-        <v>1388590000</v>
+        <v>204360000</v>
       </c>
     </row>
     <row r="398">
@@ -7148,7 +7148,7 @@
         <v>2004</v>
       </c>
       <c r="D398" t="n">
-        <v>1173210000</v>
+        <v>186660000</v>
       </c>
     </row>
     <row r="399">
@@ -7162,7 +7162,7 @@
         <v>2005</v>
       </c>
       <c r="D399" t="n">
-        <v>766770000</v>
+        <v>208240000</v>
       </c>
     </row>
     <row r="400">
@@ -7176,7 +7176,7 @@
         <v>2006</v>
       </c>
       <c r="D400" t="n">
-        <v>3946050000</v>
+        <v>173360000</v>
       </c>
     </row>
     <row r="401">
@@ -7190,7 +7190,7 @@
         <v>2007</v>
       </c>
       <c r="D401" t="n">
-        <v>2155600000</v>
+        <v>186350000</v>
       </c>
     </row>
     <row r="402">
@@ -7204,7 +7204,7 @@
         <v>2008</v>
       </c>
       <c r="D402" t="n">
-        <v>1122350000</v>
+        <v>230110000</v>
       </c>
     </row>
     <row r="403">
@@ -7218,7 +7218,7 @@
         <v>2009</v>
       </c>
       <c r="D403" t="n">
-        <v>803050000</v>
+        <v>214690000</v>
       </c>
     </row>
     <row r="404">
@@ -7232,7 +7232,7 @@
         <v>2010</v>
       </c>
       <c r="D404" t="n">
-        <v>679460000</v>
+        <v>348810000</v>
       </c>
     </row>
     <row r="405">
@@ -7246,7 +7246,7 @@
         <v>2011</v>
       </c>
       <c r="D405" t="n">
-        <v>667830000</v>
+        <v>264500000</v>
       </c>
     </row>
     <row r="406">
@@ -7260,7 +7260,7 @@
         <v>2012</v>
       </c>
       <c r="D406" t="n">
-        <v>692150000</v>
+        <v>267850000</v>
       </c>
     </row>
     <row r="407">
@@ -7274,7 +7274,7 @@
         <v>2013</v>
       </c>
       <c r="D407" t="n">
-        <v>768480000</v>
+        <v>261860000</v>
       </c>
     </row>
     <row r="408">
@@ -7288,7 +7288,7 @@
         <v>2000</v>
       </c>
       <c r="D408" t="n">
-        <v>164830000</v>
+        <v>138930000</v>
       </c>
     </row>
     <row r="409">
@@ -7302,7 +7302,7 @@
         <v>2001</v>
       </c>
       <c r="D409" t="n">
-        <v>136830000</v>
+        <v>146600000</v>
       </c>
     </row>
     <row r="410">
@@ -7316,7 +7316,7 @@
         <v>2002</v>
       </c>
       <c r="D410" t="n">
-        <v>155490000</v>
+        <v>103710000</v>
       </c>
     </row>
     <row r="411">
@@ -7330,7 +7330,7 @@
         <v>2003</v>
       </c>
       <c r="D411" t="n">
-        <v>204360000</v>
+        <v>76950000</v>
       </c>
     </row>
     <row r="412">
@@ -7344,7 +7344,7 @@
         <v>2004</v>
       </c>
       <c r="D412" t="n">
-        <v>186660000</v>
+        <v>140690000</v>
       </c>
     </row>
     <row r="413">
@@ -7358,7 +7358,7 @@
         <v>2005</v>
       </c>
       <c r="D413" t="n">
-        <v>208240000</v>
+        <v>116500000</v>
       </c>
     </row>
     <row r="414">
@@ -7372,7 +7372,7 @@
         <v>2006</v>
       </c>
       <c r="D414" t="n">
-        <v>173360000</v>
+        <v>220940000</v>
       </c>
     </row>
     <row r="415">
@@ -7386,7 +7386,7 @@
         <v>2007</v>
       </c>
       <c r="D415" t="n">
-        <v>186350000</v>
+        <v>242680000</v>
       </c>
     </row>
     <row r="416">
@@ -7400,7 +7400,7 @@
         <v>2008</v>
       </c>
       <c r="D416" t="n">
-        <v>230110000</v>
+        <v>291300000</v>
       </c>
     </row>
     <row r="417">
@@ -7414,7 +7414,7 @@
         <v>2009</v>
       </c>
       <c r="D417" t="n">
-        <v>214690000</v>
+        <v>829940000</v>
       </c>
     </row>
     <row r="418">
@@ -7428,7 +7428,7 @@
         <v>2010</v>
       </c>
       <c r="D418" t="n">
-        <v>348810000</v>
+        <v>281180000</v>
       </c>
     </row>
     <row r="419">
@@ -7442,7 +7442,7 @@
         <v>2011</v>
       </c>
       <c r="D419" t="n">
-        <v>264500000</v>
+        <v>266960000</v>
       </c>
     </row>
     <row r="420">
@@ -7456,7 +7456,7 @@
         <v>2012</v>
       </c>
       <c r="D420" t="n">
-        <v>267850000</v>
+        <v>236440000</v>
       </c>
     </row>
     <row r="421">
@@ -7470,7 +7470,7 @@
         <v>2013</v>
       </c>
       <c r="D421" t="n">
-        <v>261860000</v>
+        <v>195030000</v>
       </c>
     </row>
     <row r="422">
@@ -7484,7 +7484,7 @@
         <v>2000</v>
       </c>
       <c r="D422" t="n">
-        <v>138930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -7498,7 +7498,7 @@
         <v>2001</v>
       </c>
       <c r="D423" t="n">
-        <v>146600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -7512,7 +7512,7 @@
         <v>2002</v>
       </c>
       <c r="D424" t="n">
-        <v>103710000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -7526,7 +7526,7 @@
         <v>2003</v>
       </c>
       <c r="D425" t="n">
-        <v>76950000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -7540,7 +7540,7 @@
         <v>2004</v>
       </c>
       <c r="D426" t="n">
-        <v>140690000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -7554,7 +7554,7 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v>116500000</v>
+        <v>8780000</v>
       </c>
     </row>
     <row r="428">
@@ -7568,7 +7568,7 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v>220940000</v>
+        <v>173710000</v>
       </c>
     </row>
     <row r="429">
@@ -7582,7 +7582,7 @@
         <v>2007</v>
       </c>
       <c r="D429" t="n">
-        <v>242680000</v>
+        <v>265480000</v>
       </c>
     </row>
     <row r="430">
@@ -7596,7 +7596,7 @@
         <v>2008</v>
       </c>
       <c r="D430" t="n">
-        <v>291300000</v>
+        <v>292030000</v>
       </c>
     </row>
     <row r="431">
@@ -7610,7 +7610,7 @@
         <v>2009</v>
       </c>
       <c r="D431" t="n">
-        <v>829940000</v>
+        <v>364850000</v>
       </c>
     </row>
     <row r="432">
@@ -7624,7 +7624,7 @@
         <v>2010</v>
       </c>
       <c r="D432" t="n">
-        <v>281180000</v>
+        <v>206440000</v>
       </c>
     </row>
     <row r="433">
@@ -7638,7 +7638,7 @@
         <v>2011</v>
       </c>
       <c r="D433" t="n">
-        <v>266960000</v>
+        <v>172960000</v>
       </c>
     </row>
     <row r="434">
@@ -7652,7 +7652,7 @@
         <v>2012</v>
       </c>
       <c r="D434" t="n">
-        <v>236440000</v>
+        <v>202680000</v>
       </c>
     </row>
     <row r="435">
@@ -7666,7 +7666,7 @@
         <v>2013</v>
       </c>
       <c r="D435" t="n">
-        <v>195030000</v>
+        <v>227770000</v>
       </c>
     </row>
     <row r="436">
@@ -7680,7 +7680,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>236310000</v>
       </c>
     </row>
     <row r="437">
@@ -7694,7 +7694,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>342900000</v>
       </c>
     </row>
     <row r="438">
@@ -7708,7 +7708,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>405240000</v>
       </c>
     </row>
     <row r="439">
@@ -7722,7 +7722,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>392460000</v>
       </c>
     </row>
     <row r="440">
@@ -7736,7 +7736,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>0</v>
+        <v>450730000</v>
       </c>
     </row>
     <row r="441">
@@ -7750,7 +7750,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>8780000</v>
+        <v>515790000</v>
       </c>
     </row>
     <row r="442">
@@ -7764,7 +7764,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>173710000</v>
+        <v>388780000</v>
       </c>
     </row>
     <row r="443">
@@ -7778,7 +7778,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>265480000</v>
+        <v>427550000</v>
       </c>
     </row>
     <row r="444">
@@ -7792,7 +7792,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>292030000</v>
+        <v>511220000</v>
       </c>
     </row>
     <row r="445">
@@ -7806,7 +7806,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>364850000</v>
+        <v>626000000</v>
       </c>
     </row>
     <row r="446">
@@ -7820,7 +7820,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>206440000</v>
+        <v>555720000</v>
       </c>
     </row>
     <row r="447">
@@ -7834,7 +7834,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>172960000</v>
+        <v>507110000</v>
       </c>
     </row>
     <row r="448">
@@ -7848,7 +7848,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>202680000</v>
+        <v>534760000</v>
       </c>
     </row>
     <row r="449">
@@ -7862,7 +7862,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>227770000</v>
+        <v>446500000</v>
       </c>
     </row>
     <row r="450">
@@ -7876,7 +7876,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>236310000</v>
+        <v>124010000</v>
       </c>
     </row>
     <row r="451">
@@ -7890,7 +7890,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>342900000</v>
+        <v>185410000</v>
       </c>
     </row>
     <row r="452">
@@ -7904,7 +7904,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>405240000</v>
+        <v>132970000</v>
       </c>
     </row>
     <row r="453">
@@ -7918,7 +7918,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>392460000</v>
+        <v>133360000</v>
       </c>
     </row>
     <row r="454">
@@ -7932,7 +7932,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>450730000</v>
+        <v>134060000</v>
       </c>
     </row>
     <row r="455">
@@ -7946,7 +7946,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>515790000</v>
+        <v>216300000</v>
       </c>
     </row>
     <row r="456">
@@ -7960,7 +7960,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>388780000</v>
+        <v>137320000</v>
       </c>
     </row>
     <row r="457">
@@ -7974,7 +7974,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>427550000</v>
+        <v>136030000</v>
       </c>
     </row>
     <row r="458">
@@ -7988,7 +7988,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>511220000</v>
+        <v>132740000</v>
       </c>
     </row>
     <row r="459">
@@ -8002,7 +8002,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>626000000</v>
+        <v>108010000</v>
       </c>
     </row>
     <row r="460">
@@ -8016,7 +8016,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>555720000</v>
+        <v>226670000</v>
       </c>
     </row>
     <row r="461">
@@ -8030,7 +8030,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>507110000</v>
+        <v>174390000</v>
       </c>
     </row>
     <row r="462">
@@ -8044,7 +8044,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>534760000</v>
+        <v>142460000</v>
       </c>
     </row>
     <row r="463">
@@ -8058,7 +8058,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>446500000</v>
+        <v>92800000</v>
       </c>
     </row>
     <row r="464">
@@ -8072,7 +8072,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>124010000</v>
+        <v>3313260000</v>
       </c>
     </row>
     <row r="465">
@@ -8086,7 +8086,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>185410000</v>
+        <v>3427410000</v>
       </c>
     </row>
     <row r="466">
@@ -8100,7 +8100,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>132970000</v>
+        <v>3538670000</v>
       </c>
     </row>
     <row r="467">
@@ -8114,7 +8114,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>133360000</v>
+        <v>3283280000</v>
       </c>
     </row>
     <row r="468">
@@ -8128,7 +8128,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>134060000</v>
+        <v>3589350000</v>
       </c>
     </row>
     <row r="469">
@@ -8142,7 +8142,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>216300000</v>
+        <v>3824160000</v>
       </c>
     </row>
     <row r="470">
@@ -8156,7 +8156,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>137320000</v>
+        <v>3298340000</v>
       </c>
     </row>
     <row r="471">
@@ -8170,7 +8170,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>136030000</v>
+        <v>3486210000</v>
       </c>
     </row>
     <row r="472">
@@ -8184,7 +8184,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>132740000</v>
+        <v>3375090000</v>
       </c>
     </row>
     <row r="473">
@@ -8198,7 +8198,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>108010000</v>
+        <v>3088330000</v>
       </c>
     </row>
     <row r="474">
@@ -8212,7 +8212,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>226670000</v>
+        <v>2742240000</v>
       </c>
     </row>
     <row r="475">
@@ -8226,7 +8226,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>174390000</v>
+        <v>2569760000</v>
       </c>
     </row>
     <row r="476">
@@ -8240,7 +8240,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>142460000</v>
+        <v>2406790000</v>
       </c>
     </row>
     <row r="477">
@@ -8254,7 +8254,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>92800000</v>
+        <v>1834200000</v>
       </c>
     </row>
     <row r="478">
@@ -8268,7 +8268,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>3313260000</v>
+        <v>414490000</v>
       </c>
     </row>
     <row r="479">
@@ -8282,7 +8282,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>3427410000</v>
+        <v>674570000</v>
       </c>
     </row>
     <row r="480">
@@ -8296,7 +8296,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>3538670000</v>
+        <v>738420000</v>
       </c>
     </row>
     <row r="481">
@@ -8310,7 +8310,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>3283280000</v>
+        <v>1090140000</v>
       </c>
     </row>
     <row r="482">
@@ -8324,7 +8324,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>3589350000</v>
+        <v>741530000</v>
       </c>
     </row>
     <row r="483">
@@ -8338,7 +8338,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>3824160000</v>
+        <v>845250000</v>
       </c>
     </row>
     <row r="484">
@@ -8352,7 +8352,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>3298340000</v>
+        <v>1191460000</v>
       </c>
     </row>
     <row r="485">
@@ -8366,7 +8366,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>3486210000</v>
+        <v>829930000</v>
       </c>
     </row>
     <row r="486">
@@ -8380,7 +8380,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>3375090000</v>
+        <v>1048950000</v>
       </c>
     </row>
     <row r="487">
@@ -8394,7 +8394,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>3088330000</v>
+        <v>1151070000</v>
       </c>
     </row>
     <row r="488">
@@ -8408,7 +8408,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>2742240000</v>
+        <v>999520000</v>
       </c>
     </row>
     <row r="489">
@@ -8422,7 +8422,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>2569760000</v>
+        <v>1041110000</v>
       </c>
     </row>
     <row r="490">
@@ -8436,7 +8436,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>2406790000</v>
+        <v>807750000</v>
       </c>
     </row>
     <row r="491">
@@ -8450,7 +8450,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>1834200000</v>
+        <v>875870000</v>
       </c>
     </row>
     <row r="492">
@@ -8464,7 +8464,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>414490000</v>
+        <v>36960000</v>
       </c>
     </row>
     <row r="493">
@@ -8478,7 +8478,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>674570000</v>
+        <v>52160000</v>
       </c>
     </row>
     <row r="494">
@@ -8492,7 +8492,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>738420000</v>
+        <v>49360000</v>
       </c>
     </row>
     <row r="495">
@@ -8506,7 +8506,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>1090140000</v>
+        <v>37780000</v>
       </c>
     </row>
     <row r="496">
@@ -8520,7 +8520,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>741530000</v>
+        <v>36610000</v>
       </c>
     </row>
     <row r="497">
@@ -8534,7 +8534,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>845250000</v>
+        <v>32390000</v>
       </c>
     </row>
     <row r="498">
@@ -8548,7 +8548,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>1191460000</v>
+        <v>41200000</v>
       </c>
     </row>
     <row r="499">
@@ -8562,7 +8562,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>829930000</v>
+        <v>52070000</v>
       </c>
     </row>
     <row r="500">
@@ -8576,7 +8576,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>1048950000</v>
+        <v>47780000</v>
       </c>
     </row>
     <row r="501">
@@ -8590,7 +8590,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>1151070000</v>
+        <v>59630000</v>
       </c>
     </row>
     <row r="502">
@@ -8604,7 +8604,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>999520000</v>
+        <v>74920000</v>
       </c>
     </row>
     <row r="503">
@@ -8618,7 +8618,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>1041110000</v>
+        <v>59010000</v>
       </c>
     </row>
     <row r="504">
@@ -8632,7 +8632,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>807750000</v>
+        <v>116970000</v>
       </c>
     </row>
     <row r="505">
@@ -8646,7 +8646,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>875870000</v>
+        <v>178590000</v>
       </c>
     </row>
     <row r="506">
@@ -8660,7 +8660,7 @@
         <v>2000</v>
       </c>
       <c r="D506" t="n">
-        <v>36960000</v>
+        <v>85270000</v>
       </c>
     </row>
     <row r="507">
@@ -8674,7 +8674,7 @@
         <v>2001</v>
       </c>
       <c r="D507" t="n">
-        <v>52160000</v>
+        <v>146630000</v>
       </c>
     </row>
     <row r="508">
@@ -8688,7 +8688,7 @@
         <v>2002</v>
       </c>
       <c r="D508" t="n">
-        <v>49360000</v>
+        <v>139380000</v>
       </c>
     </row>
     <row r="509">
@@ -8702,7 +8702,7 @@
         <v>2003</v>
       </c>
       <c r="D509" t="n">
-        <v>37780000</v>
+        <v>117410000</v>
       </c>
     </row>
     <row r="510">
@@ -8716,7 +8716,7 @@
         <v>2004</v>
       </c>
       <c r="D510" t="n">
-        <v>36610000</v>
+        <v>195970000</v>
       </c>
     </row>
     <row r="511">
@@ -8730,7 +8730,7 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>32390000</v>
+        <v>1794700000</v>
       </c>
     </row>
     <row r="512">
@@ -8744,7 +8744,7 @@
         <v>2006</v>
       </c>
       <c r="D512" t="n">
-        <v>41200000</v>
+        <v>482300000</v>
       </c>
     </row>
     <row r="513">
@@ -8758,7 +8758,7 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>52070000</v>
+        <v>158710000</v>
       </c>
     </row>
     <row r="514">
@@ -8772,7 +8772,7 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>47780000</v>
+        <v>497530000</v>
       </c>
     </row>
     <row r="515">
@@ -8786,7 +8786,7 @@
         <v>2009</v>
       </c>
       <c r="D515" t="n">
-        <v>59630000</v>
+        <v>321560000</v>
       </c>
     </row>
     <row r="516">
@@ -8800,7 +8800,7 @@
         <v>2010</v>
       </c>
       <c r="D516" t="n">
-        <v>74920000</v>
+        <v>1626990000</v>
       </c>
     </row>
     <row r="517">
@@ -8814,7 +8814,7 @@
         <v>2011</v>
       </c>
       <c r="D517" t="n">
-        <v>59010000</v>
+        <v>333230000</v>
       </c>
     </row>
     <row r="518">
@@ -8828,7 +8828,7 @@
         <v>2012</v>
       </c>
       <c r="D518" t="n">
-        <v>116970000</v>
+        <v>190430000</v>
       </c>
     </row>
     <row r="519">
@@ -8842,7 +8842,7 @@
         <v>2013</v>
       </c>
       <c r="D519" t="n">
-        <v>178590000</v>
+        <v>175500000</v>
       </c>
     </row>
     <row r="520">
@@ -8856,7 +8856,7 @@
         <v>2000</v>
       </c>
       <c r="D520" t="n">
-        <v>85270000</v>
+        <v>9530000</v>
       </c>
     </row>
     <row r="521">
@@ -8870,7 +8870,7 @@
         <v>2001</v>
       </c>
       <c r="D521" t="n">
-        <v>146630000</v>
+        <v>11690000</v>
       </c>
     </row>
     <row r="522">
@@ -8884,7 +8884,7 @@
         <v>2002</v>
       </c>
       <c r="D522" t="n">
-        <v>139380000</v>
+        <v>8770000</v>
       </c>
     </row>
     <row r="523">
@@ -8898,7 +8898,7 @@
         <v>2003</v>
       </c>
       <c r="D523" t="n">
-        <v>117410000</v>
+        <v>10580000</v>
       </c>
     </row>
     <row r="524">
@@ -8912,7 +8912,7 @@
         <v>2004</v>
       </c>
       <c r="D524" t="n">
-        <v>195970000</v>
+        <v>13700000</v>
       </c>
     </row>
     <row r="525">
@@ -8926,7 +8926,7 @@
         <v>2005</v>
       </c>
       <c r="D525" t="n">
-        <v>1794700000</v>
+        <v>11770000</v>
       </c>
     </row>
     <row r="526">
@@ -8940,7 +8940,7 @@
         <v>2006</v>
       </c>
       <c r="D526" t="n">
-        <v>482300000</v>
+        <v>39590000</v>
       </c>
     </row>
     <row r="527">
@@ -8954,7 +8954,7 @@
         <v>2007</v>
       </c>
       <c r="D527" t="n">
-        <v>158710000</v>
+        <v>12600000</v>
       </c>
     </row>
     <row r="528">
@@ -8968,7 +8968,7 @@
         <v>2008</v>
       </c>
       <c r="D528" t="n">
-        <v>497530000</v>
+        <v>7550000</v>
       </c>
     </row>
     <row r="529">
@@ -8982,7 +8982,7 @@
         <v>2009</v>
       </c>
       <c r="D529" t="n">
-        <v>321560000</v>
+        <v>10710000</v>
       </c>
     </row>
     <row r="530">
@@ -8996,7 +8996,7 @@
         <v>2010</v>
       </c>
       <c r="D530" t="n">
-        <v>1626990000</v>
+        <v>16300000</v>
       </c>
     </row>
     <row r="531">
@@ -9010,7 +9010,7 @@
         <v>2011</v>
       </c>
       <c r="D531" t="n">
-        <v>333230000</v>
+        <v>26720000</v>
       </c>
     </row>
     <row r="532">
@@ -9024,7 +9024,7 @@
         <v>2012</v>
       </c>
       <c r="D532" t="n">
-        <v>190430000</v>
+        <v>22180000</v>
       </c>
     </row>
     <row r="533">
@@ -9038,7 +9038,7 @@
         <v>2013</v>
       </c>
       <c r="D533" t="n">
-        <v>175500000</v>
+        <v>16820000</v>
       </c>
     </row>
     <row r="534">
@@ -9052,7 +9052,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>9530000</v>
+        <v>120190000</v>
       </c>
     </row>
     <row r="535">
@@ -9066,7 +9066,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>11690000</v>
+        <v>105310000</v>
       </c>
     </row>
     <row r="536">
@@ -9080,7 +9080,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>8770000</v>
+        <v>87520000</v>
       </c>
     </row>
     <row r="537">
@@ -9094,7 +9094,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>10580000</v>
+        <v>106360000</v>
       </c>
     </row>
     <row r="538">
@@ -9108,7 +9108,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>13700000</v>
+        <v>94110000</v>
       </c>
     </row>
     <row r="539">
@@ -9122,7 +9122,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>11770000</v>
+        <v>83320000</v>
       </c>
     </row>
     <row r="540">
@@ -9136,7 +9136,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>39590000</v>
+        <v>85730000</v>
       </c>
     </row>
     <row r="541">
@@ -9150,7 +9150,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>12600000</v>
+        <v>148960000</v>
       </c>
     </row>
     <row r="542">
@@ -9164,7 +9164,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>7550000</v>
+        <v>118550000</v>
       </c>
     </row>
     <row r="543">
@@ -9178,7 +9178,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>10710000</v>
+        <v>150300000</v>
       </c>
     </row>
     <row r="544">
@@ -9192,7 +9192,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>16300000</v>
+        <v>173040000</v>
       </c>
     </row>
     <row r="545">
@@ -9206,7 +9206,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>26720000</v>
+        <v>74760000</v>
       </c>
     </row>
     <row r="546">
@@ -9220,7 +9220,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>22180000</v>
+        <v>64630000</v>
       </c>
     </row>
     <row r="547">
@@ -9234,7 +9234,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>16820000</v>
+        <v>78400000</v>
       </c>
     </row>
     <row r="548">
@@ -9248,7 +9248,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>120190000</v>
+        <v>783440000</v>
       </c>
     </row>
     <row r="549">
@@ -9262,7 +9262,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>105310000</v>
+        <v>527940000</v>
       </c>
     </row>
     <row r="550">
@@ -9276,7 +9276,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>87520000</v>
+        <v>2181840000</v>
       </c>
     </row>
     <row r="551">
@@ -9290,7 +9290,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>106360000</v>
+        <v>576950000</v>
       </c>
     </row>
     <row r="552">
@@ -9304,7 +9304,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>94110000</v>
+        <v>421570000</v>
       </c>
     </row>
     <row r="553">
@@ -9318,7 +9318,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>83320000</v>
+        <v>272810000</v>
       </c>
     </row>
     <row r="554">
@@ -9332,7 +9332,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>85730000</v>
+        <v>402010000</v>
       </c>
     </row>
     <row r="555">
@@ -9346,7 +9346,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>148960000</v>
+        <v>325760000</v>
       </c>
     </row>
     <row r="556">
@@ -9360,7 +9360,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>118550000</v>
+        <v>831270000</v>
       </c>
     </row>
     <row r="557">
@@ -9374,7 +9374,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>150300000</v>
+        <v>2556070000</v>
       </c>
     </row>
     <row r="558">
@@ -9388,7 +9388,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>173040000</v>
+        <v>982170000</v>
       </c>
     </row>
     <row r="559">
@@ -9402,7 +9402,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>74760000</v>
+        <v>1493390000</v>
       </c>
     </row>
     <row r="560">
@@ -9416,7 +9416,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>64630000</v>
+        <v>4696970000</v>
       </c>
     </row>
     <row r="561">
@@ -9430,7 +9430,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>78400000</v>
+        <v>2097770000</v>
       </c>
     </row>
     <row r="562">
@@ -37265,46 +37265,46 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>783440000</v>
+        <v>625580000</v>
       </c>
       <c r="D28" t="n">
-        <v>527940000</v>
+        <v>690480000</v>
       </c>
       <c r="E28" t="n">
-        <v>2181840000</v>
+        <v>767310000</v>
       </c>
       <c r="F28" t="n">
-        <v>576950000</v>
+        <v>719850000</v>
       </c>
       <c r="G28" t="n">
-        <v>421570000</v>
+        <v>624250000</v>
       </c>
       <c r="H28" t="n">
-        <v>272810000</v>
+        <v>672020000</v>
       </c>
       <c r="I28" t="n">
-        <v>402010000</v>
+        <v>750980000</v>
       </c>
       <c r="J28" t="n">
-        <v>325760000</v>
+        <v>771700000</v>
       </c>
       <c r="K28" t="n">
-        <v>831270000</v>
+        <v>807230000</v>
       </c>
       <c r="L28" t="n">
-        <v>2556070000</v>
+        <v>805490000</v>
       </c>
       <c r="M28" t="n">
-        <v>982170000</v>
+        <v>806170000</v>
       </c>
       <c r="N28" t="n">
-        <v>1493390000</v>
+        <v>854100000</v>
       </c>
       <c r="O28" t="n">
-        <v>4696970000</v>
+        <v>860210000</v>
       </c>
       <c r="P28" t="n">
-        <v>2097770000</v>
+        <v>895140000</v>
       </c>
     </row>
     <row r="29">
@@ -37315,46 +37315,46 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>625580000</v>
+        <v>846540000</v>
       </c>
       <c r="D29" t="n">
-        <v>690480000</v>
+        <v>977390000</v>
       </c>
       <c r="E29" t="n">
-        <v>767310000</v>
+        <v>1238070000</v>
       </c>
       <c r="F29" t="n">
-        <v>719850000</v>
+        <v>1388590000</v>
       </c>
       <c r="G29" t="n">
-        <v>624250000</v>
+        <v>1173210000</v>
       </c>
       <c r="H29" t="n">
-        <v>672020000</v>
+        <v>766770000</v>
       </c>
       <c r="I29" t="n">
-        <v>750980000</v>
+        <v>3946050000</v>
       </c>
       <c r="J29" t="n">
-        <v>771700000</v>
+        <v>2155600000</v>
       </c>
       <c r="K29" t="n">
-        <v>807230000</v>
+        <v>1122350000</v>
       </c>
       <c r="L29" t="n">
-        <v>805490000</v>
+        <v>803050000</v>
       </c>
       <c r="M29" t="n">
-        <v>806170000</v>
+        <v>679460000</v>
       </c>
       <c r="N29" t="n">
-        <v>854100000</v>
+        <v>667830000</v>
       </c>
       <c r="O29" t="n">
-        <v>860210000</v>
+        <v>692150000</v>
       </c>
       <c r="P29" t="n">
-        <v>895140000</v>
+        <v>768480000</v>
       </c>
     </row>
     <row r="30">
@@ -37365,46 +37365,46 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>846540000</v>
+        <v>164830000</v>
       </c>
       <c r="D30" t="n">
-        <v>977390000</v>
+        <v>136830000</v>
       </c>
       <c r="E30" t="n">
-        <v>1238070000</v>
+        <v>155490000</v>
       </c>
       <c r="F30" t="n">
-        <v>1388590000</v>
+        <v>204360000</v>
       </c>
       <c r="G30" t="n">
-        <v>1173210000</v>
+        <v>186660000</v>
       </c>
       <c r="H30" t="n">
-        <v>766770000</v>
+        <v>208240000</v>
       </c>
       <c r="I30" t="n">
-        <v>3946050000</v>
+        <v>173360000</v>
       </c>
       <c r="J30" t="n">
-        <v>2155600000</v>
+        <v>186350000</v>
       </c>
       <c r="K30" t="n">
-        <v>1122350000</v>
+        <v>230110000</v>
       </c>
       <c r="L30" t="n">
-        <v>803050000</v>
+        <v>214690000</v>
       </c>
       <c r="M30" t="n">
-        <v>679460000</v>
+        <v>348810000</v>
       </c>
       <c r="N30" t="n">
-        <v>667830000</v>
+        <v>264500000</v>
       </c>
       <c r="O30" t="n">
-        <v>692150000</v>
+        <v>267850000</v>
       </c>
       <c r="P30" t="n">
-        <v>768480000</v>
+        <v>261860000</v>
       </c>
     </row>
     <row r="31">
@@ -37415,46 +37415,46 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>164830000</v>
+        <v>138930000</v>
       </c>
       <c r="D31" t="n">
-        <v>136830000</v>
+        <v>146600000</v>
       </c>
       <c r="E31" t="n">
-        <v>155490000</v>
+        <v>103710000</v>
       </c>
       <c r="F31" t="n">
-        <v>204360000</v>
+        <v>76950000</v>
       </c>
       <c r="G31" t="n">
-        <v>186660000</v>
+        <v>140690000</v>
       </c>
       <c r="H31" t="n">
-        <v>208240000</v>
+        <v>116500000</v>
       </c>
       <c r="I31" t="n">
-        <v>173360000</v>
+        <v>220940000</v>
       </c>
       <c r="J31" t="n">
-        <v>186350000</v>
+        <v>242680000</v>
       </c>
       <c r="K31" t="n">
-        <v>230110000</v>
+        <v>291300000</v>
       </c>
       <c r="L31" t="n">
-        <v>214690000</v>
+        <v>829940000</v>
       </c>
       <c r="M31" t="n">
-        <v>348810000</v>
+        <v>281180000</v>
       </c>
       <c r="N31" t="n">
-        <v>264500000</v>
+        <v>266960000</v>
       </c>
       <c r="O31" t="n">
-        <v>267850000</v>
+        <v>236440000</v>
       </c>
       <c r="P31" t="n">
-        <v>261860000</v>
+        <v>195030000</v>
       </c>
     </row>
     <row r="32">
@@ -37465,46 +37465,46 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>138930000</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>146600000</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>103710000</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>76950000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>140690000</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>116500000</v>
+        <v>8780000</v>
       </c>
       <c r="I32" t="n">
-        <v>220940000</v>
+        <v>173710000</v>
       </c>
       <c r="J32" t="n">
-        <v>242680000</v>
+        <v>265480000</v>
       </c>
       <c r="K32" t="n">
-        <v>291300000</v>
+        <v>292030000</v>
       </c>
       <c r="L32" t="n">
-        <v>829940000</v>
+        <v>364850000</v>
       </c>
       <c r="M32" t="n">
-        <v>281180000</v>
+        <v>206440000</v>
       </c>
       <c r="N32" t="n">
-        <v>266960000</v>
+        <v>172960000</v>
       </c>
       <c r="O32" t="n">
-        <v>236440000</v>
+        <v>202680000</v>
       </c>
       <c r="P32" t="n">
-        <v>195030000</v>
+        <v>227770000</v>
       </c>
     </row>
     <row r="33">
@@ -37515,46 +37515,46 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>236310000</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>342900000</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>405240000</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>392460000</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>450730000</v>
       </c>
       <c r="H33" t="n">
-        <v>8780000</v>
+        <v>515790000</v>
       </c>
       <c r="I33" t="n">
-        <v>173710000</v>
+        <v>388780000</v>
       </c>
       <c r="J33" t="n">
-        <v>265480000</v>
+        <v>427550000</v>
       </c>
       <c r="K33" t="n">
-        <v>292030000</v>
+        <v>511220000</v>
       </c>
       <c r="L33" t="n">
-        <v>364850000</v>
+        <v>626000000</v>
       </c>
       <c r="M33" t="n">
-        <v>206440000</v>
+        <v>555720000</v>
       </c>
       <c r="N33" t="n">
-        <v>172960000</v>
+        <v>507110000</v>
       </c>
       <c r="O33" t="n">
-        <v>202680000</v>
+        <v>534760000</v>
       </c>
       <c r="P33" t="n">
-        <v>227770000</v>
+        <v>446500000</v>
       </c>
     </row>
     <row r="34">
@@ -37565,46 +37565,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>236310000</v>
+        <v>124010000</v>
       </c>
       <c r="D34" t="n">
-        <v>342900000</v>
+        <v>185410000</v>
       </c>
       <c r="E34" t="n">
-        <v>405240000</v>
+        <v>132970000</v>
       </c>
       <c r="F34" t="n">
-        <v>392460000</v>
+        <v>133360000</v>
       </c>
       <c r="G34" t="n">
-        <v>450730000</v>
+        <v>134060000</v>
       </c>
       <c r="H34" t="n">
-        <v>515790000</v>
+        <v>216300000</v>
       </c>
       <c r="I34" t="n">
-        <v>388780000</v>
+        <v>137320000</v>
       </c>
       <c r="J34" t="n">
-        <v>427550000</v>
+        <v>136030000</v>
       </c>
       <c r="K34" t="n">
-        <v>511220000</v>
+        <v>132740000</v>
       </c>
       <c r="L34" t="n">
-        <v>626000000</v>
+        <v>108010000</v>
       </c>
       <c r="M34" t="n">
-        <v>555720000</v>
+        <v>226670000</v>
       </c>
       <c r="N34" t="n">
-        <v>507110000</v>
+        <v>174390000</v>
       </c>
       <c r="O34" t="n">
-        <v>534760000</v>
+        <v>142460000</v>
       </c>
       <c r="P34" t="n">
-        <v>446500000</v>
+        <v>92800000</v>
       </c>
     </row>
     <row r="35">
@@ -37615,46 +37615,46 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>124010000</v>
+        <v>3313260000</v>
       </c>
       <c r="D35" t="n">
-        <v>185410000</v>
+        <v>3427410000</v>
       </c>
       <c r="E35" t="n">
-        <v>132970000</v>
+        <v>3538670000</v>
       </c>
       <c r="F35" t="n">
-        <v>133360000</v>
+        <v>3283280000</v>
       </c>
       <c r="G35" t="n">
-        <v>134060000</v>
+        <v>3589350000</v>
       </c>
       <c r="H35" t="n">
-        <v>216300000</v>
+        <v>3824160000</v>
       </c>
       <c r="I35" t="n">
-        <v>137320000</v>
+        <v>3298340000</v>
       </c>
       <c r="J35" t="n">
-        <v>136030000</v>
+        <v>3486210000</v>
       </c>
       <c r="K35" t="n">
-        <v>132740000</v>
+        <v>3375090000</v>
       </c>
       <c r="L35" t="n">
-        <v>108010000</v>
+        <v>3088330000</v>
       </c>
       <c r="M35" t="n">
-        <v>226670000</v>
+        <v>2742240000</v>
       </c>
       <c r="N35" t="n">
-        <v>174390000</v>
+        <v>2569760000</v>
       </c>
       <c r="O35" t="n">
-        <v>142460000</v>
+        <v>2406790000</v>
       </c>
       <c r="P35" t="n">
-        <v>92800000</v>
+        <v>1834200000</v>
       </c>
     </row>
     <row r="36">
@@ -37665,46 +37665,46 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>3313260000</v>
+        <v>414490000</v>
       </c>
       <c r="D36" t="n">
-        <v>3427410000</v>
+        <v>674570000</v>
       </c>
       <c r="E36" t="n">
-        <v>3538670000</v>
+        <v>738420000</v>
       </c>
       <c r="F36" t="n">
-        <v>3283280000</v>
+        <v>1090140000</v>
       </c>
       <c r="G36" t="n">
-        <v>3589350000</v>
+        <v>741530000</v>
       </c>
       <c r="H36" t="n">
-        <v>3824160000</v>
+        <v>845250000</v>
       </c>
       <c r="I36" t="n">
-        <v>3298340000</v>
+        <v>1191460000</v>
       </c>
       <c r="J36" t="n">
-        <v>3486210000</v>
+        <v>829930000</v>
       </c>
       <c r="K36" t="n">
-        <v>3375090000</v>
+        <v>1048950000</v>
       </c>
       <c r="L36" t="n">
-        <v>3088330000</v>
+        <v>1151070000</v>
       </c>
       <c r="M36" t="n">
-        <v>2742240000</v>
+        <v>999520000</v>
       </c>
       <c r="N36" t="n">
-        <v>2569760000</v>
+        <v>1041110000</v>
       </c>
       <c r="O36" t="n">
-        <v>2406790000</v>
+        <v>807750000</v>
       </c>
       <c r="P36" t="n">
-        <v>1834200000</v>
+        <v>875870000</v>
       </c>
     </row>
     <row r="37">
@@ -37715,46 +37715,46 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>414490000</v>
+        <v>36960000</v>
       </c>
       <c r="D37" t="n">
-        <v>674570000</v>
+        <v>52160000</v>
       </c>
       <c r="E37" t="n">
-        <v>738420000</v>
+        <v>49360000</v>
       </c>
       <c r="F37" t="n">
-        <v>1090140000</v>
+        <v>37780000</v>
       </c>
       <c r="G37" t="n">
-        <v>741530000</v>
+        <v>36610000</v>
       </c>
       <c r="H37" t="n">
-        <v>845250000</v>
+        <v>32390000</v>
       </c>
       <c r="I37" t="n">
-        <v>1191460000</v>
+        <v>41200000</v>
       </c>
       <c r="J37" t="n">
-        <v>829930000</v>
+        <v>52070000</v>
       </c>
       <c r="K37" t="n">
-        <v>1048950000</v>
+        <v>47780000</v>
       </c>
       <c r="L37" t="n">
-        <v>1151070000</v>
+        <v>59630000</v>
       </c>
       <c r="M37" t="n">
-        <v>999520000</v>
+        <v>74920000</v>
       </c>
       <c r="N37" t="n">
-        <v>1041110000</v>
+        <v>59010000</v>
       </c>
       <c r="O37" t="n">
-        <v>807750000</v>
+        <v>116970000</v>
       </c>
       <c r="P37" t="n">
-        <v>875870000</v>
+        <v>178590000</v>
       </c>
     </row>
     <row r="38">
@@ -37765,46 +37765,46 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>36960000</v>
+        <v>85270000</v>
       </c>
       <c r="D38" t="n">
-        <v>52160000</v>
+        <v>146630000</v>
       </c>
       <c r="E38" t="n">
-        <v>49360000</v>
+        <v>139380000</v>
       </c>
       <c r="F38" t="n">
-        <v>37780000</v>
+        <v>117410000</v>
       </c>
       <c r="G38" t="n">
-        <v>36610000</v>
+        <v>195970000</v>
       </c>
       <c r="H38" t="n">
-        <v>32390000</v>
+        <v>1794700000</v>
       </c>
       <c r="I38" t="n">
-        <v>41200000</v>
+        <v>482300000</v>
       </c>
       <c r="J38" t="n">
-        <v>52070000</v>
+        <v>158710000</v>
       </c>
       <c r="K38" t="n">
-        <v>47780000</v>
+        <v>497530000</v>
       </c>
       <c r="L38" t="n">
-        <v>59630000</v>
+        <v>321560000</v>
       </c>
       <c r="M38" t="n">
-        <v>74920000</v>
+        <v>1626990000</v>
       </c>
       <c r="N38" t="n">
-        <v>59010000</v>
+        <v>333230000</v>
       </c>
       <c r="O38" t="n">
-        <v>116970000</v>
+        <v>190430000</v>
       </c>
       <c r="P38" t="n">
-        <v>178590000</v>
+        <v>175500000</v>
       </c>
     </row>
     <row r="39">
@@ -37815,46 +37815,46 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>85270000</v>
+        <v>9530000</v>
       </c>
       <c r="D39" t="n">
-        <v>146630000</v>
+        <v>11690000</v>
       </c>
       <c r="E39" t="n">
-        <v>139380000</v>
+        <v>8770000</v>
       </c>
       <c r="F39" t="n">
-        <v>117410000</v>
+        <v>10580000</v>
       </c>
       <c r="G39" t="n">
-        <v>195970000</v>
+        <v>13700000</v>
       </c>
       <c r="H39" t="n">
-        <v>1794700000</v>
+        <v>11770000</v>
       </c>
       <c r="I39" t="n">
-        <v>482300000</v>
+        <v>39590000</v>
       </c>
       <c r="J39" t="n">
-        <v>158710000</v>
+        <v>12600000</v>
       </c>
       <c r="K39" t="n">
-        <v>497530000</v>
+        <v>7550000</v>
       </c>
       <c r="L39" t="n">
-        <v>321560000</v>
+        <v>10710000</v>
       </c>
       <c r="M39" t="n">
-        <v>1626990000</v>
+        <v>16300000</v>
       </c>
       <c r="N39" t="n">
-        <v>333230000</v>
+        <v>26720000</v>
       </c>
       <c r="O39" t="n">
-        <v>190430000</v>
+        <v>22180000</v>
       </c>
       <c r="P39" t="n">
-        <v>175500000</v>
+        <v>16820000</v>
       </c>
     </row>
     <row r="40">
@@ -37865,46 +37865,46 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>9530000</v>
+        <v>120190000</v>
       </c>
       <c r="D40" t="n">
-        <v>11690000</v>
+        <v>105310000</v>
       </c>
       <c r="E40" t="n">
-        <v>8770000</v>
+        <v>87520000</v>
       </c>
       <c r="F40" t="n">
-        <v>10580000</v>
+        <v>106360000</v>
       </c>
       <c r="G40" t="n">
-        <v>13700000</v>
+        <v>94110000</v>
       </c>
       <c r="H40" t="n">
-        <v>11770000</v>
+        <v>83320000</v>
       </c>
       <c r="I40" t="n">
-        <v>39590000</v>
+        <v>85730000</v>
       </c>
       <c r="J40" t="n">
-        <v>12600000</v>
+        <v>148960000</v>
       </c>
       <c r="K40" t="n">
-        <v>7550000</v>
+        <v>118550000</v>
       </c>
       <c r="L40" t="n">
-        <v>10710000</v>
+        <v>150300000</v>
       </c>
       <c r="M40" t="n">
-        <v>16300000</v>
+        <v>173040000</v>
       </c>
       <c r="N40" t="n">
-        <v>26720000</v>
+        <v>74760000</v>
       </c>
       <c r="O40" t="n">
-        <v>22180000</v>
+        <v>64630000</v>
       </c>
       <c r="P40" t="n">
-        <v>16820000</v>
+        <v>78400000</v>
       </c>
     </row>
     <row r="41">
@@ -37915,46 +37915,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>120190000</v>
+        <v>783440000</v>
       </c>
       <c r="D41" t="n">
-        <v>105310000</v>
+        <v>527940000</v>
       </c>
       <c r="E41" t="n">
-        <v>87520000</v>
+        <v>2181840000</v>
       </c>
       <c r="F41" t="n">
-        <v>106360000</v>
+        <v>576950000</v>
       </c>
       <c r="G41" t="n">
-        <v>94110000</v>
+        <v>421570000</v>
       </c>
       <c r="H41" t="n">
-        <v>83320000</v>
+        <v>272810000</v>
       </c>
       <c r="I41" t="n">
-        <v>85730000</v>
+        <v>402010000</v>
       </c>
       <c r="J41" t="n">
-        <v>148960000</v>
+        <v>325760000</v>
       </c>
       <c r="K41" t="n">
-        <v>118550000</v>
+        <v>831270000</v>
       </c>
       <c r="L41" t="n">
-        <v>150300000</v>
+        <v>2556070000</v>
       </c>
       <c r="M41" t="n">
-        <v>173040000</v>
+        <v>982170000</v>
       </c>
       <c r="N41" t="n">
-        <v>74760000</v>
+        <v>1493390000</v>
       </c>
       <c r="O41" t="n">
-        <v>64630000</v>
+        <v>4696970000</v>
       </c>
       <c r="P41" t="n">
-        <v>78400000</v>
+        <v>2097770000</v>
       </c>
     </row>
     <row r="42">
